--- a/data/income_statement/3digits/total/429_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/429_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>429-Construction of other civil engineering projects</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>429-Construction of other civil engineering projects</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,14 +841,19 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>3443041.62478</v>
@@ -956,76 +862,86 @@
         <v>4613952.856200001</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>4726402.76039</v>
+        <v>4753218.0269</v>
       </c>
       <c r="F5" s="47" t="n">
         <v>8730897.62266</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>7329995.799469999</v>
+        <v>7981246.454860001</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>7953839.46332</v>
+        <v>8132654.361310001</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>11595264.35944</v>
+        <v>14746045.34857</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>11663359.62684</v>
+        <v>11664603.13551</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>13205174.62079</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>19648534.39005</v>
+        <v>19695761.82466</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>37499661.86403</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>37935686.21778</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>27358445.594</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>3078817.843420001</v>
+        <v>3078817.84342</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>4319980.099520001</v>
+        <v>4319980.09952</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>4211482.16785</v>
+        <v>4238272.00909</v>
       </c>
       <c r="F6" s="48" t="n">
         <v>8076813.684149999</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>6590717.746569999</v>
+        <v>6812777.259059999</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>7302655.289050001</v>
+        <v>7478999.39146</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>10733695.48739</v>
+        <v>13789838.84954</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>9482715.534209998</v>
+        <v>9483957.624950001</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>8907347.569729999</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>12848165.18449</v>
+        <v>12895387.7128</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>33110825.41413</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>33271341.93745</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>24298627.233</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>267705.33361</v>
@@ -1037,16 +953,16 @@
         <v>399087.701</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>457834.6431400001</v>
+        <v>457834.64314</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>586092.47824</v>
+        <v>874274.41389</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>446924.67036</v>
+        <v>447503.2002600001</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>476522.88433</v>
+        <v>563337.28784</v>
       </c>
       <c r="J7" s="48" t="n">
         <v>1925696.69921</v>
@@ -1058,52 +974,62 @@
         <v>6055075.063440001</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>3618801.89973</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>3894135.55105</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>2642406.05</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>96518.44775000002</v>
+        <v>96518.44775000001</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>79054.72739999999</v>
+        <v>79054.7274</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>115832.89154</v>
+        <v>115858.31681</v>
       </c>
       <c r="F8" s="48" t="n">
         <v>196249.29537</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>153185.57466</v>
+        <v>294194.78191</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>204259.50391</v>
+        <v>206151.76959</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>385045.9877200001</v>
+        <v>392869.21119</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>254947.39342</v>
+        <v>254948.81135</v>
       </c>
       <c r="K8" s="48" t="n">
         <v>213831.73746</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>745294.1421199999</v>
+        <v>745299.0484199999</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>770034.5501699999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>770208.7292799999</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>417412.311</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>6333.44916</v>
@@ -1115,16 +1041,16 @@
         <v>4459.68175</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>8583.903440000002</v>
+        <v>8583.90344</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>4817.65405</v>
+        <v>4922.52677</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>10710.70456</v>
+        <v>10817.66474</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>9442.876969999999</v>
+        <v>9486.165129999999</v>
       </c>
       <c r="J9" s="47" t="n">
         <v>20873.75671</v>
@@ -1136,16 +1062,21 @@
         <v>53677.11579</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>40664.76868</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>315283.55551</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>41837.494</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>6132.266300000001</v>
+        <v>6132.2663</v>
       </c>
       <c r="D10" s="48" t="n">
         <v>3434.84412</v>
@@ -1157,13 +1088,13 @@
         <v>4732.8815</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>3620.63502</v>
+        <v>3667.010060000001</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>6524.1712</v>
+        <v>6575.36823</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>7500.112230000001</v>
+        <v>7524.23168</v>
       </c>
       <c r="J10" s="48" t="n">
         <v>19747.21331</v>
@@ -1175,13 +1106,18 @@
         <v>49329.49073</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>34658.23117</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>34663.07742</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>40507.846</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>178.78339</v>
@@ -1196,13 +1132,13 @@
         <v>319.351</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>560.9204599999999</v>
+        <v>619.41814</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>122.6171</v>
+        <v>159.31354</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>884.86244</v>
+        <v>904.03115</v>
       </c>
       <c r="J11" s="48" t="n">
         <v>280.50581</v>
@@ -1211,16 +1147,21 @@
         <v>512.06587</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>334.60442</v>
+        <v>334.6044200000001</v>
       </c>
       <c r="M11" s="48" t="n">
         <v>480.58356</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" s="48" t="n">
+        <v>314.059</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>22.39947</v>
@@ -1238,7 +1179,7 @@
         <v>636.09857</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>4063.91626</v>
+        <v>4082.98297</v>
       </c>
       <c r="I12" s="48" t="n">
         <v>1057.9023</v>
@@ -1247,58 +1188,68 @@
         <v>846.0375900000001</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>3398.440579999999</v>
+        <v>3398.44058</v>
       </c>
       <c r="L12" s="48" t="n">
         <v>4013.02064</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>5525.95395</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>280139.89453</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>1015.589</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>3436708.17562</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>4609852.74487</v>
+        <v>4609852.744869999</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>4721943.07864</v>
+        <v>4748758.345149999</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>8722313.719219999</v>
+        <v>8722313.719220001</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>7325178.14542</v>
+        <v>7976323.928090001</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>7943128.758760001</v>
+        <v>8121836.69657</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>11585821.48247</v>
+        <v>14736559.18344</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>11642485.87013</v>
+        <v>11643729.3788</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>13179143.32138</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>19594857.27426</v>
+        <v>19642084.70887</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>37458997.09535</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>37620402.66226999</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>27316608.1</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>2879300.81395</v>
@@ -1307,37 +1258,42 @@
         <v>4119070.86696</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>4380733.89721</v>
+        <v>4405024.293980001</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>8002238.034709999</v>
+        <v>8002238.03471</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>6802317.754000001</v>
+        <v>7345185.06225</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>7622974.005429999</v>
+        <v>7823783.48014</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>10221137.65445</v>
+        <v>13166773.44053</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>10952500.98935</v>
+        <v>10952921.61079</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>12398914.14083</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>18555700.47216</v>
+        <v>18594912.65261</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>35137577.54609001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>35277485.71576</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>25943514.481</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>291314.96337</v>
@@ -1352,16 +1308,16 @@
         <v>1006595.23434</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>1114280.97043</v>
+        <v>1114295.48822</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>285230.89231</v>
+        <v>288963.52605</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>326205.92581</v>
+        <v>344496.4383</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>639254.98491</v>
+        <v>639254.9849100001</v>
       </c>
       <c r="K15" s="48" t="n">
         <v>438662.96366</v>
@@ -1370,13 +1326,18 @@
         <v>426285.10023</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>286133.75421</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>286242.1185800001</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>894122.3199999999</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>205992.46817</v>
@@ -1385,37 +1346,42 @@
         <v>264663.14477</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>390592.2001899999</v>
+        <v>390592.20019</v>
       </c>
       <c r="F16" s="48" t="n">
         <v>416481.04047</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>547898.5240699999</v>
+        <v>570951.3595700001</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>758238.78581</v>
+        <v>785758.16017</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>563236.40021</v>
+        <v>678041.96608</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>744408.7231899999</v>
+        <v>744430.03717</v>
       </c>
       <c r="K16" s="48" t="n">
         <v>1228416.21965</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>860454.7019700001</v>
+        <v>861255.5218700001</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>641336.0275900001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>656213.4505700001</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>965296.42</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>2332323.8847</v>
@@ -1424,37 +1390,42 @@
         <v>3035180.4435</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>3621880.09297</v>
+        <v>3646170.48974</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>6448270.44733</v>
+        <v>6448270.447330001</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>5099669.045059999</v>
+        <v>5482416.847740001</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>6384782.69883</v>
+        <v>6554289.74172</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>9044108.889180001</v>
+        <v>11856415.1849</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>9400238.191539999</v>
+        <v>9400637.499</v>
       </c>
       <c r="K17" s="48" t="n">
         <v>10619297.31357</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>16950992.99075</v>
+        <v>16989404.3513</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>34112013.06626</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>34236893.0757</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>24016783.533</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>49669.49771</v>
@@ -1469,13 +1440,13 @@
         <v>130891.31257</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>40469.21444</v>
+        <v>177521.36672</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>194721.62848</v>
+        <v>194772.0522</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>287586.43925</v>
+        <v>287819.85125</v>
       </c>
       <c r="J18" s="48" t="n">
         <v>168599.08971</v>
@@ -1487,52 +1458,62 @@
         <v>317967.67921</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>98094.69803</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>98137.07090999999</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>67312.208</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>557407.3616700001</v>
+        <v>557407.36167</v>
       </c>
       <c r="D19" s="47" t="n">
         <v>490781.87791</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>341209.1814299999</v>
+        <v>343734.0511699999</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>720075.6845100002</v>
+        <v>720075.6845099999</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>522860.3914199999</v>
+        <v>631138.8658399999</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>320154.75333</v>
+        <v>298053.21643</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>1364683.82802</v>
+        <v>1569785.74291</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>689984.88078</v>
+        <v>690807.76801</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>780229.18055</v>
+        <v>780229.1805499999</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>1039156.8021</v>
+        <v>1047172.05626</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>2321419.54926</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>2342916.94651</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>1373093.619</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>180522.43466</v>
@@ -1547,31 +1528,36 @@
         <v>294004.3329099999</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>288276.20675</v>
+        <v>305636.2637899999</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>300966.36365</v>
+        <v>316238.20153</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>422014.00374</v>
+        <v>443449.28107</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>494832.51837</v>
+        <v>495038.79364</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>715838.03412</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>698689.6868100001</v>
+        <v>699445.0158700001</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>754651.80746</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>756015.86502</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>523420.767</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>5337.50901</v>
@@ -1606,11 +1592,16 @@
       <c r="M21" s="48" t="n">
         <v>229.75163</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>207.726</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>18241.3104</v>
@@ -1625,31 +1616,36 @@
         <v>36326.63066</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>33415.02251</v>
+        <v>38634.24736</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>21815.0039</v>
+        <v>22499.97098</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>21719.09157</v>
+        <v>22281.06262</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>21957.82939</v>
+        <v>21991.01464</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>98054.60805000001</v>
+        <v>98054.60805</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>94175.45280000001</v>
+        <v>94179.49009000001</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>53254.54766</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>53266.8335</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>53788.616</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>156943.61525</v>
@@ -1664,70 +1660,80 @@
         <v>214698.73998</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>254516.68131</v>
+        <v>266657.5135</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>277739.37203</v>
+        <v>292326.2428300001</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>399955.62208</v>
+        <v>420828.92836</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>471540.00668</v>
+        <v>471713.0967</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>616964.16813</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>579688.0987000001</v>
+        <v>580439.39047</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>701167.5081699999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>702519.27989</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>469424.425</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>376884.9270099999</v>
+        <v>376884.92701</v>
       </c>
       <c r="D24" s="47" t="n">
         <v>301976.33195</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>125099.90332</v>
+        <v>127624.77306</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>426071.3516000001</v>
+        <v>426071.3515999999</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>234584.18467</v>
+        <v>325502.60205</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>19188.38968</v>
+        <v>-18184.98509999999</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>942669.8242800001</v>
+        <v>1126336.46184</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>195152.36241</v>
+        <v>195768.97437</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>64391.14643000001</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>340467.11529</v>
+        <v>347727.04039</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>1566767.7418</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1586901.08149</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>849672.852</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>528622.93895</v>
@@ -1742,31 +1748,36 @@
         <v>1070637.70408</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>903954.30831</v>
+        <v>942896.6993000001</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>1072421.6018</v>
+        <v>1299668.29685</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>1753376.5853</v>
+        <v>1873103.4978</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>2205949.19399</v>
+        <v>2206513.2579</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>2608324.96753</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>6251942.376380001</v>
+        <v>6251609.38375</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>3671238.3276</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>3673483.64202</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>6084068.018</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>107830.02039</v>
@@ -1781,13 +1792,13 @@
         <v>147536.37151</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>96736.72351</v>
+        <v>96771.205</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>90049.42414</v>
+        <v>90086.03620999999</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>35211.42422</v>
+        <v>53441.05696</v>
       </c>
       <c r="J26" s="48" t="n">
         <v>100555.0129</v>
@@ -1799,16 +1810,21 @@
         <v>141289.15618</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>370460.94897</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>374709.12094</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>74381.64999999999</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
-        <v>65184.26590999999</v>
+        <v>65184.26591</v>
       </c>
       <c r="D27" s="48" t="n">
         <v>56238.19433999999</v>
@@ -1820,13 +1836,13 @@
         <v>296070.1621</v>
       </c>
       <c r="G27" s="48" t="n">
-        <v>78426.83689999999</v>
+        <v>78426.83690000001</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>71001.94137999999</v>
+        <v>134128.47688</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>52046.89446</v>
+        <v>90706.03526</v>
       </c>
       <c r="J27" s="48" t="n">
         <v>218629.94779</v>
@@ -1840,14 +1856,19 @@
       <c r="M27" s="48" t="n">
         <v>294017.7639</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>204394.853</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>82647.48992000001</v>
+        <v>82647.48992000002</v>
       </c>
       <c r="D28" s="48" t="n">
         <v>77808.02652</v>
@@ -1859,31 +1880,36 @@
         <v>150555.66367</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>140651.15133</v>
+        <v>143551.41536</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>135555.01597</v>
+        <v>151593.01982</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>164140.93781</v>
+        <v>194303.06692</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>195374.32567</v>
+        <v>195611.67243</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>306140.4079299999</v>
+        <v>306140.40793</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>389671.24073</v>
+        <v>389671.29306</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>528808.50551</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>529285.4120199999</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>260969.711</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>31.73301</v>
@@ -1904,13 +1930,13 @@
         <v>1275.16187</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>4.53744</v>
+        <v>5.90801</v>
       </c>
       <c r="J29" s="48" t="n">
         <v>582.8407099999999</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>953.6231700000001</v>
+        <v>953.62317</v>
       </c>
       <c r="L29" s="48" t="n">
         <v>296.80717</v>
@@ -1918,11 +1944,16 @@
       <c r="M29" s="48" t="n">
         <v>32.51802</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>20.289</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>686.5546200000001</v>
@@ -1931,7 +1962,7 @@
         <v>4659.86626</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>3527.00023</v>
+        <v>3527.000230000001</v>
       </c>
       <c r="F30" s="48" t="n">
         <v>3991.07125</v>
@@ -1940,13 +1971,13 @@
         <v>7137.53197</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>5505.3191</v>
+        <v>5505.319100000001</v>
       </c>
       <c r="I30" s="48" t="n">
         <v>5744.15098</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>6516.44789</v>
+        <v>6516.447889999999</v>
       </c>
       <c r="K30" s="48" t="n">
         <v>10487.62864</v>
@@ -1957,11 +1988,16 @@
       <c r="M30" s="48" t="n">
         <v>14662.69815</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>11186.543</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>26102.56057</v>
@@ -1970,7 +2006,7 @@
         <v>23748.11991</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>7985.699549999998</v>
+        <v>7985.699549999999</v>
       </c>
       <c r="F31" s="48" t="n">
         <v>18825.47515</v>
@@ -1979,10 +2015,10 @@
         <v>13297.9643</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>12222.92983</v>
+        <v>12271.31316</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>12313.6346</v>
+        <v>12760.89129</v>
       </c>
       <c r="J31" s="48" t="n">
         <v>31868.38268</v>
@@ -1991,16 +2027,21 @@
         <v>8767.331099999999</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>9436.58071</v>
+        <v>9436.580709999998</v>
       </c>
       <c r="M31" s="48" t="n">
         <v>28106.25693</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>7650.767</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>162198.2813</v>
@@ -2015,31 +2056,36 @@
         <v>247187.124</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>452685.68936</v>
+        <v>456647.5504200001</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>545669.4983399999</v>
+        <v>563370.70977</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>1317710.64736</v>
+        <v>1343086.1705</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>1361951.15452</v>
+        <v>1362267.90046</v>
       </c>
       <c r="K32" s="48" t="n">
         <v>1312292.80193</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>5114569.24113</v>
+        <v>5115629.13236</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>2174695.47062</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>2174695.68428</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>5125404.475</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>1836.26574</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>1086.45874</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>1484.331</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>32082.18718</v>
@@ -2113,11 +2164,16 @@
       <c r="M34" s="48" t="n">
         <v>495.85607</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>93.565</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>50023.58031</v>
@@ -2132,31 +2188,36 @@
         <v>116418.87357</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>106560.28449</v>
+        <v>138606.0689</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>210024.42806</v>
+        <v>340320.37693</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>154108.61692</v>
+        <v>160960.47637</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>285222.60613</v>
+        <v>285232.57734</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>464910.80869</v>
+        <v>464910.8086899999</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>431277.57361</v>
+        <v>429884.63742</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>258871.85069</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>256391.87297</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>398481.834</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>254346.21174</v>
@@ -2171,34 +2232,39 @@
         <v>561218.1096699999</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>497784.53229</v>
+        <v>533092.57938</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>941784.0181100001</v>
+        <v>954870.4751199998</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>1461438.42452</v>
+        <v>1493862.92541</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>1543612.22218</v>
+        <v>1543629.62271</v>
       </c>
       <c r="K36" s="47" t="n">
         <v>1833742.84208</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>5497415.67399</v>
+        <v>5497943.07643</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>2327526.67718</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>2332126.95196</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>6041952.485</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>854.2498000000001</v>
+        <v>854.2497999999998</v>
       </c>
       <c r="D37" s="48" t="n">
         <v>415.10815</v>
@@ -2213,13 +2279,13 @@
         <v>1330.99297</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>1812.81707</v>
+        <v>1826.1504</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>2487.47911</v>
+        <v>2746.86168</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>2996.90148</v>
+        <v>2997.07206</v>
       </c>
       <c r="K37" s="48" t="n">
         <v>1640.79497</v>
@@ -2228,13 +2294,18 @@
         <v>2980.470669999999</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>4706.062299999999</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>4706.0623</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>2440.829</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>1794.83523</v>
@@ -2252,13 +2323,13 @@
         <v>15183.00902</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>73860.48624</v>
+        <v>74034.15310000001</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>16332.06466</v>
+        <v>16375.77667</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>6954.24144</v>
+        <v>6959.913680000001</v>
       </c>
       <c r="K38" s="48" t="n">
         <v>8407.174999999999</v>
@@ -2269,11 +2340,16 @@
       <c r="M38" s="48" t="n">
         <v>23884.02187</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>30129.247</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>4779.183230000001</v>
@@ -2291,10 +2367,10 @@
         <v>17828.6123</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>11068.56737</v>
+        <v>11074.57729</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>13970.17979</v>
+        <v>14067.18315</v>
       </c>
       <c r="J39" s="48" t="n">
         <v>32766.16054</v>
@@ -2308,11 +2384,16 @@
       <c r="M39" s="48" t="n">
         <v>1434.30722</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>6666.252</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>147109.32478</v>
@@ -2327,31 +2408,36 @@
         <v>245697.08877</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>390223.24812</v>
+        <v>408335.07439</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>512240.31172</v>
+        <v>516809.59978</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>1321655.48097</v>
+        <v>1344119.34244</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>1255331.47504</v>
+        <v>1255340.57212</v>
       </c>
       <c r="K40" s="48" t="n">
         <v>1453731.25014</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>5259284.7579</v>
+        <v>5259812.160290001</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>2153757.58714</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>2158336.54464</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>5689978.696</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>58.93312</v>
@@ -2386,14 +2472,19 @@
       <c r="M41" s="48" t="n">
         <v>6.84863</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>2347.386</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
-        <v>45602.85361</v>
+        <v>45602.85361000001</v>
       </c>
       <c r="D42" s="48" t="n">
         <v>129489.1769</v>
@@ -2425,11 +2516,16 @@
       <c r="M42" s="48" t="n">
         <v>2.437</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>2.381</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>54146.83197</v>
@@ -2438,37 +2534,42 @@
         <v>73112.4893</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>61459.4712</v>
+        <v>61459.47119999999</v>
       </c>
       <c r="F43" s="48" t="n">
         <v>112808.15441</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>72338.74664000001</v>
+        <v>89534.96746</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>340759.53332</v>
+        <v>349083.69216</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>96313.84179000001</v>
+        <v>105874.38327</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>245238.48395</v>
+        <v>245240.94458</v>
       </c>
       <c r="K43" s="48" t="n">
         <v>369414.61492</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>200594.81346</v>
+        <v>200594.81351</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>143735.41302</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>143756.7303</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>310387.694</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>69633.49778000001</v>
@@ -2483,31 +2584,36 @@
         <v>70095.39795999999</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>80433.41567</v>
+        <v>91016.88261</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>144862.59174</v>
+        <v>146699.3428</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>154570.44428</v>
+        <v>164240.28706</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>218418.56301</v>
+        <v>219106.87176</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>378705.20053</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>773247.06594</v>
+        <v>773247.18776</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>1396008.12835</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>1397177.98338</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>1680699.065</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>69330.3478</v>
@@ -2522,31 +2628,36 @@
         <v>61962.76562999999</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>73399.07011000002</v>
+        <v>83982.53705</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>136030.45483</v>
+        <v>137867.20589</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>144214.49489</v>
+        <v>153884.33767</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>211384.79436</v>
+        <v>212073.10311</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>349917.85483</v>
+        <v>349917.8548299999</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>726970.9141400001</v>
+        <v>726971.0359599999</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>939929.83472</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>941099.68975</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>1553355.272</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>303.14998</v>
@@ -2555,10 +2666,10 @@
         <v>536.27365</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>27930.51061</v>
+        <v>27930.51060999999</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>8132.632330000001</v>
+        <v>8132.63233</v>
       </c>
       <c r="G46" s="48" t="n">
         <v>7034.345560000001</v>
@@ -2573,58 +2684,68 @@
         <v>7033.768649999999</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>28787.3457</v>
+        <v>28787.34569999999</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>46276.15180000001</v>
+        <v>46276.1518</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>456078.29363</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>456078.2936299999</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>127343.793</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>581528.1564399999</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>774457.9569300001</v>
+        <v>774457.95693</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>914474.6675499999</v>
+        <v>916999.53729</v>
       </c>
       <c r="F47" s="47" t="n">
         <v>865395.5480500001</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>560320.54502</v>
+        <v>644289.83936</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>4963.381629999995</v>
+        <v>179913.49383</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>1080037.54078</v>
+        <v>1341336.74717</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>639070.77121</v>
+        <v>639545.7378000001</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>460268.07135</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>321746.75174</v>
+        <v>328146.15995</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>1514471.26387</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>1531079.78817</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>-788910.6800000001</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>48222.3124</v>
@@ -2636,34 +2757,39 @@
         <v>224906.11968</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>78406.76598000001</v>
+        <v>78406.76598</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>189160.94808</v>
+        <v>196306.85071</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>284416.78078</v>
+        <v>286137.16731</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>191419.88517</v>
+        <v>204167.98947</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>296220.96087</v>
+        <v>296388.37551</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>269174.43536</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>165159.19575</v>
+        <v>165197.33537</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>196952.77956</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>197641.23902</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>818062.291</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>4161.01938</v>
@@ -2672,22 +2798,22 @@
         <v>29367.43534</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>37145.33135999999</v>
+        <v>37145.33136</v>
       </c>
       <c r="F49" s="48" t="n">
         <v>17847.7093</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>38611.36308</v>
+        <v>38613.06458</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>33278.9103</v>
+        <v>33314.08472</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>43727.19613</v>
+        <v>44357.26764</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>96610.20160999999</v>
+        <v>96610.20161</v>
       </c>
       <c r="K49" s="48" t="n">
         <v>35314.42189</v>
@@ -2696,13 +2822,18 @@
         <v>7580.81205</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>36332.89254</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>37263.86959999999</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>12211.337</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>44061.29302</v>
@@ -2714,34 +2845,39 @@
         <v>187760.78832</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>60559.05667999999</v>
+        <v>60559.05668</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>150549.585</v>
+        <v>157693.78613</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>251137.87048</v>
+        <v>252823.08259</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>147692.68904</v>
+        <v>159810.72183</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>199610.75926</v>
+        <v>199778.1739</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>233860.01347</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>157578.3837</v>
+        <v>157616.52332</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>160619.88702</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>160377.36942</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>805850.954</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>52264.57061</v>
@@ -2750,37 +2886,42 @@
         <v>220688.22545</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>444634.22799</v>
+        <v>444765.73844</v>
       </c>
       <c r="F51" s="47" t="n">
         <v>132480.20907</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>175257.27287</v>
+        <v>182440.21577</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>417512.6002</v>
+        <v>433878.52726</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>221406.1674</v>
+        <v>228811.17962</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>635601.3168400001</v>
+        <v>635645.67903</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>302529.78867</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>570666.1859200001</v>
+        <v>570783.1559199999</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>380314.73423</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>391291.84064</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>892776.147</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>8572.86889</v>
@@ -2789,7 +2930,7 @@
         <v>12316.96281</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>4554.065100000001</v>
+        <v>4554.0651</v>
       </c>
       <c r="F52" s="48" t="n">
         <v>1702.49463</v>
@@ -2798,10 +2939,10 @@
         <v>2607.94024</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>10441.64317</v>
+        <v>10549.97458</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>7609.944280000001</v>
+        <v>7766.25853</v>
       </c>
       <c r="J52" s="48" t="n">
         <v>26103.9271</v>
@@ -2815,11 +2956,16 @@
       <c r="M52" s="48" t="n">
         <v>21811.59182</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>17127.646</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>12530.87356</v>
@@ -2834,13 +2980,13 @@
         <v>17023.8891</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>40610.52382000001</v>
+        <v>42842.47169</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>109672.55772</v>
+        <v>109719.01258</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>54618.94639</v>
+        <v>58182.71977</v>
       </c>
       <c r="J53" s="48" t="n">
         <v>104700.71864</v>
@@ -2852,13 +2998,18 @@
         <v>95012.99492999999</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>58093.96659</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>58367.66183</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>44989.286</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>31160.82816</v>
@@ -2867,79 +3018,89 @@
         <v>182532.17402</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>403434.08227</v>
+        <v>403565.59272</v>
       </c>
       <c r="F54" s="48" t="n">
         <v>113753.82534</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>132038.80881</v>
+        <v>136989.80384</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>297398.39931</v>
+        <v>313609.5401</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>159177.27673</v>
+        <v>162862.20132</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>504796.6711</v>
+        <v>504841.0332900001</v>
       </c>
       <c r="K54" s="48" t="n">
         <v>238346.11336</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>431054.22869</v>
+        <v>431171.19869</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>300409.17582</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>311112.58699</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>830659.215</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>577485.8982299999</v>
+        <v>577485.89823</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>640143.0020799999</v>
+        <v>640143.00208</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>694746.5592400001</v>
+        <v>697139.91853</v>
       </c>
       <c r="F55" s="47" t="n">
         <v>811322.10496</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>574224.22023</v>
+        <v>658156.4743</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>-128132.43779</v>
+        <v>32172.13387999999</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>1050051.25855</v>
+        <v>1316693.55702</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>299690.41524</v>
+        <v>300288.43428</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>426912.71804</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>-83760.23843000001</v>
+        <v>-77439.66059999999</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>1331109.3092</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>1337429.18655</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>-863624.536</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>86092.02031000001</v>
+        <v>86092.02030999999</v>
       </c>
       <c r="D56" s="47" t="n">
         <v>107716.13389</v>
@@ -2951,67 +3112,75 @@
         <v>128400.22351</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>50341.79549</v>
+        <v>51556.91593000001</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>95644.92634000001</v>
+        <v>96043.29450999999</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>238553.67696</v>
+        <v>260457.3361</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>100312.51435</v>
+        <v>100402.2081</v>
       </c>
       <c r="K56" s="47" t="n">
         <v>91668.89633</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>160767.03162</v>
+        <v>161258.29809</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>555550.19435</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>558780.0829500001</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>131774.031</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
         <v>491393.87792</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>532426.8681900001</v>
+        <v>532426.86819</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>561134.3517999999</v>
+        <v>563527.7110899999</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>682921.88145</v>
+        <v>682921.8814500001</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>523882.42474</v>
+        <v>606599.55837</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>-223777.36413</v>
+        <v>-63871.16063000001</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>811497.58159</v>
+        <v>1056236.22092</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>199377.90089</v>
+        <v>199886.22618</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>335243.82171</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-244527.27005</v>
+        <v>-238697.95869</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>775559.1148499999</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>778649.1036</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>-995398.567</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>535</v>
@@ -3038,34 +3210,37 @@
         <v>589</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="F59" s="35" t="n">
         <v>789</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>932</v>
+        <v>936</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>990</v>
+        <v>1007</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>1029</v>
+        <v>1075</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>1125</v>
+        <v>1130</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>1207</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>1190</v>
+        <v>1231</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>1127</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>1175</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>